--- a/parameter.xlsx
+++ b/parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawhamburgedu-my.sharepoint.com/personal/wzo448_haw-hamburg_de/Documents/2024-SS/Numerische Methoden der Mechanik/Labore/3 Anfangswertproblem/GitPyIV/PyIV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4DB114E441178AC67DF4E29E92D136683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D1F80BF-047B-4C01-A43C-8A94EEC08857}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4DB114E441178AC67DF4E29E92D136683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84DBB553-1056-4037-A4B1-A23333045C15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>parameter</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Obstacles ….</t>
+  </si>
+  <si>
+    <t>k[1]</t>
+  </si>
+  <si>
+    <t>N/m</t>
+  </si>
+  <si>
+    <t>border stiffness</t>
   </si>
 </sst>
 </file>
@@ -191,12 +200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -481,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,62 +590,79 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
     </row>
